--- a/form/static/健康監測手開帳單v3.0.xlsx
+++ b/form/static/健康監測手開帳單v3.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\手開帳單原檔\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\ntumclab\venv\userform\form\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E1FC1F-B440-434B-A086-4FBA3BF2EA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBECAAD3-38A5-4194-AF6B-3BCEF10F4950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="510" windowWidth="15330" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="540" windowWidth="19575" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 " sheetId="1" r:id="rId1"/>
@@ -449,6 +449,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,10 +487,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -472,38 +495,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -871,8 +871,8 @@
   </sheetPr>
   <dimension ref="A1:IW39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -890,16 +890,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:257" s="17" customFormat="1" ht="27.75">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:257" s="17" customFormat="1" ht="25.5">
       <c r="A2" s="18"/>
@@ -909,10 +909,10 @@
       <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:257" s="17" customFormat="1" ht="18.75" customHeight="1">
@@ -922,44 +922,44 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:257" s="5" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:257" s="5" customFormat="1" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:257" s="5" customFormat="1" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:257">
       <c r="A8" s="21"/>
@@ -973,57 +973,57 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:257" s="5" customFormat="1" ht="19.5">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:257" s="5" customFormat="1" ht="19.5">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="36">
         <f>4650*E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="1:257" s="5" customFormat="1" ht="19.5">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="29">
-        <f>4650*E12</f>
+      <c r="F12" s="36">
+        <f>3020*E12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:257" ht="9.75" customHeight="1">
       <c r="A13" s="14"/>
@@ -1035,8 +1035,8 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:257" s="13" customFormat="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="10" t="s">
         <v>20</v>
       </c>
@@ -1057,540 +1057,540 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:257" s="40" customFormat="1" ht="19.5">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:257" s="26" customFormat="1" ht="19.5">
+      <c r="A16" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40">
         <f>SUM(F11:G12)*D14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="39"/>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="39"/>
-      <c r="AP16" s="39"/>
-      <c r="AQ16" s="39"/>
-      <c r="AR16" s="39"/>
-      <c r="AS16" s="39"/>
-      <c r="AT16" s="39"/>
-      <c r="AU16" s="39"/>
-      <c r="AV16" s="39"/>
-      <c r="AW16" s="39"/>
-      <c r="AX16" s="39"/>
-      <c r="AY16" s="39"/>
-      <c r="AZ16" s="39"/>
-      <c r="BA16" s="39"/>
-      <c r="BB16" s="39"/>
-      <c r="BC16" s="39"/>
-      <c r="BD16" s="39"/>
-      <c r="BE16" s="39"/>
-      <c r="BF16" s="39"/>
-      <c r="BG16" s="39"/>
-      <c r="BH16" s="39"/>
-      <c r="BI16" s="39"/>
-      <c r="BJ16" s="39"/>
-      <c r="BK16" s="39"/>
-      <c r="BL16" s="39"/>
-      <c r="BM16" s="39"/>
-      <c r="BN16" s="39"/>
-      <c r="BO16" s="39"/>
-      <c r="BP16" s="39"/>
-      <c r="BQ16" s="39"/>
-      <c r="BR16" s="39"/>
-      <c r="BS16" s="39"/>
-      <c r="BT16" s="39"/>
-      <c r="BU16" s="39"/>
-      <c r="BV16" s="39"/>
-      <c r="BW16" s="39"/>
-      <c r="BX16" s="39"/>
-      <c r="BY16" s="39"/>
-      <c r="BZ16" s="39"/>
-      <c r="CA16" s="39"/>
-      <c r="CB16" s="39"/>
-      <c r="CC16" s="39"/>
-      <c r="CD16" s="39"/>
-      <c r="CE16" s="39"/>
-      <c r="CF16" s="39"/>
-      <c r="CG16" s="39"/>
-      <c r="CH16" s="39"/>
-      <c r="CI16" s="39"/>
-      <c r="CJ16" s="39"/>
-      <c r="CK16" s="39"/>
-      <c r="CL16" s="39"/>
-      <c r="CM16" s="39"/>
-      <c r="CN16" s="39"/>
-      <c r="CO16" s="39"/>
-      <c r="CP16" s="39"/>
-      <c r="CQ16" s="39"/>
-      <c r="CR16" s="39"/>
-      <c r="CS16" s="39"/>
-      <c r="CT16" s="39"/>
-      <c r="CU16" s="39"/>
-      <c r="CV16" s="39"/>
-      <c r="CW16" s="39"/>
-      <c r="CX16" s="39"/>
-      <c r="CY16" s="39"/>
-      <c r="CZ16" s="39"/>
-      <c r="DA16" s="39"/>
-      <c r="DB16" s="39"/>
-      <c r="DC16" s="39"/>
-      <c r="DD16" s="39"/>
-      <c r="DE16" s="39"/>
-      <c r="DF16" s="39"/>
-      <c r="DG16" s="39"/>
-      <c r="DH16" s="39"/>
-      <c r="DI16" s="39"/>
-      <c r="DJ16" s="39"/>
-      <c r="DK16" s="39"/>
-      <c r="DL16" s="39"/>
-      <c r="DM16" s="39"/>
-      <c r="DN16" s="39"/>
-      <c r="DO16" s="39"/>
-      <c r="DP16" s="39"/>
-      <c r="DQ16" s="39"/>
-      <c r="DR16" s="39"/>
-      <c r="DS16" s="39"/>
-      <c r="DT16" s="39"/>
-      <c r="DU16" s="39"/>
-      <c r="DV16" s="39"/>
-      <c r="DW16" s="39"/>
-      <c r="DX16" s="39"/>
-      <c r="DY16" s="39"/>
-      <c r="DZ16" s="39"/>
-      <c r="EA16" s="39"/>
-      <c r="EB16" s="39"/>
-      <c r="EC16" s="39"/>
-      <c r="ED16" s="39"/>
-      <c r="EE16" s="39"/>
-      <c r="EF16" s="39"/>
-      <c r="EG16" s="39"/>
-      <c r="EH16" s="39"/>
-      <c r="EI16" s="39"/>
-      <c r="EJ16" s="39"/>
-      <c r="EK16" s="39"/>
-      <c r="EL16" s="39"/>
-      <c r="EM16" s="39"/>
-      <c r="EN16" s="39"/>
-      <c r="EO16" s="39"/>
-      <c r="EP16" s="39"/>
-      <c r="EQ16" s="39"/>
-      <c r="ER16" s="39"/>
-      <c r="ES16" s="39"/>
-      <c r="ET16" s="39"/>
-      <c r="EU16" s="39"/>
-      <c r="EV16" s="39"/>
-      <c r="EW16" s="39"/>
-      <c r="EX16" s="39"/>
-      <c r="EY16" s="39"/>
-      <c r="EZ16" s="39"/>
-      <c r="FA16" s="39"/>
-      <c r="FB16" s="39"/>
-      <c r="FC16" s="39"/>
-      <c r="FD16" s="39"/>
-      <c r="FE16" s="39"/>
-      <c r="FF16" s="39"/>
-      <c r="FG16" s="39"/>
-      <c r="FH16" s="39"/>
-      <c r="FI16" s="39"/>
-      <c r="FJ16" s="39"/>
-      <c r="FK16" s="39"/>
-      <c r="FL16" s="39"/>
-      <c r="FM16" s="39"/>
-      <c r="FN16" s="39"/>
-      <c r="FO16" s="39"/>
-      <c r="FP16" s="39"/>
-      <c r="FQ16" s="39"/>
-      <c r="FR16" s="39"/>
-      <c r="FS16" s="39"/>
-      <c r="FT16" s="39"/>
-      <c r="FU16" s="39"/>
-      <c r="FV16" s="39"/>
-      <c r="FW16" s="39"/>
-      <c r="FX16" s="39"/>
-      <c r="FY16" s="39"/>
-      <c r="FZ16" s="39"/>
-      <c r="GA16" s="39"/>
-      <c r="GB16" s="39"/>
-      <c r="GC16" s="39"/>
-      <c r="GD16" s="39"/>
-      <c r="GE16" s="39"/>
-      <c r="GF16" s="39"/>
-      <c r="GG16" s="39"/>
-      <c r="GH16" s="39"/>
-      <c r="GI16" s="39"/>
-      <c r="GJ16" s="39"/>
-      <c r="GK16" s="39"/>
-      <c r="GL16" s="39"/>
-      <c r="GM16" s="39"/>
-      <c r="GN16" s="39"/>
-      <c r="GO16" s="39"/>
-      <c r="GP16" s="39"/>
-      <c r="GQ16" s="39"/>
-      <c r="GR16" s="39"/>
-      <c r="GS16" s="39"/>
-      <c r="GT16" s="39"/>
-      <c r="GU16" s="39"/>
-      <c r="GV16" s="39"/>
-      <c r="GW16" s="39"/>
-      <c r="GX16" s="39"/>
-      <c r="GY16" s="39"/>
-      <c r="GZ16" s="39"/>
-      <c r="HA16" s="39"/>
-      <c r="HB16" s="39"/>
-      <c r="HC16" s="39"/>
-      <c r="HD16" s="39"/>
-      <c r="HE16" s="39"/>
-      <c r="HF16" s="39"/>
-      <c r="HG16" s="39"/>
-      <c r="HH16" s="39"/>
-      <c r="HI16" s="39"/>
-      <c r="HJ16" s="39"/>
-      <c r="HK16" s="39"/>
-      <c r="HL16" s="39"/>
-      <c r="HM16" s="39"/>
-      <c r="HN16" s="39"/>
-      <c r="HO16" s="39"/>
-      <c r="HP16" s="39"/>
-      <c r="HQ16" s="39"/>
-      <c r="HR16" s="39"/>
-      <c r="HS16" s="39"/>
-      <c r="HT16" s="39"/>
-      <c r="HU16" s="39"/>
-      <c r="HV16" s="39"/>
-      <c r="HW16" s="39"/>
-      <c r="HX16" s="39"/>
-      <c r="HY16" s="39"/>
-      <c r="HZ16" s="39"/>
-      <c r="IA16" s="39"/>
-      <c r="IB16" s="39"/>
-      <c r="IC16" s="39"/>
-      <c r="ID16" s="39"/>
-      <c r="IE16" s="39"/>
-      <c r="IF16" s="39"/>
-      <c r="IG16" s="39"/>
-      <c r="IH16" s="39"/>
-      <c r="II16" s="39"/>
-      <c r="IJ16" s="39"/>
-      <c r="IK16" s="39"/>
-      <c r="IL16" s="39"/>
-      <c r="IM16" s="39"/>
-      <c r="IN16" s="39"/>
-      <c r="IO16" s="39"/>
-      <c r="IP16" s="39"/>
-      <c r="IQ16" s="39"/>
-      <c r="IR16" s="39"/>
-      <c r="IS16" s="39"/>
-      <c r="IT16" s="39"/>
-      <c r="IU16" s="39"/>
-      <c r="IV16" s="39"/>
-      <c r="IW16" s="39"/>
-    </row>
-    <row r="17" spans="1:257" s="40" customFormat="1" ht="19.5">
-      <c r="A17" s="36" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="25"/>
+      <c r="AW16" s="25"/>
+      <c r="AX16" s="25"/>
+      <c r="AY16" s="25"/>
+      <c r="AZ16" s="25"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="25"/>
+      <c r="BD16" s="25"/>
+      <c r="BE16" s="25"/>
+      <c r="BF16" s="25"/>
+      <c r="BG16" s="25"/>
+      <c r="BH16" s="25"/>
+      <c r="BI16" s="25"/>
+      <c r="BJ16" s="25"/>
+      <c r="BK16" s="25"/>
+      <c r="BL16" s="25"/>
+      <c r="BM16" s="25"/>
+      <c r="BN16" s="25"/>
+      <c r="BO16" s="25"/>
+      <c r="BP16" s="25"/>
+      <c r="BQ16" s="25"/>
+      <c r="BR16" s="25"/>
+      <c r="BS16" s="25"/>
+      <c r="BT16" s="25"/>
+      <c r="BU16" s="25"/>
+      <c r="BV16" s="25"/>
+      <c r="BW16" s="25"/>
+      <c r="BX16" s="25"/>
+      <c r="BY16" s="25"/>
+      <c r="BZ16" s="25"/>
+      <c r="CA16" s="25"/>
+      <c r="CB16" s="25"/>
+      <c r="CC16" s="25"/>
+      <c r="CD16" s="25"/>
+      <c r="CE16" s="25"/>
+      <c r="CF16" s="25"/>
+      <c r="CG16" s="25"/>
+      <c r="CH16" s="25"/>
+      <c r="CI16" s="25"/>
+      <c r="CJ16" s="25"/>
+      <c r="CK16" s="25"/>
+      <c r="CL16" s="25"/>
+      <c r="CM16" s="25"/>
+      <c r="CN16" s="25"/>
+      <c r="CO16" s="25"/>
+      <c r="CP16" s="25"/>
+      <c r="CQ16" s="25"/>
+      <c r="CR16" s="25"/>
+      <c r="CS16" s="25"/>
+      <c r="CT16" s="25"/>
+      <c r="CU16" s="25"/>
+      <c r="CV16" s="25"/>
+      <c r="CW16" s="25"/>
+      <c r="CX16" s="25"/>
+      <c r="CY16" s="25"/>
+      <c r="CZ16" s="25"/>
+      <c r="DA16" s="25"/>
+      <c r="DB16" s="25"/>
+      <c r="DC16" s="25"/>
+      <c r="DD16" s="25"/>
+      <c r="DE16" s="25"/>
+      <c r="DF16" s="25"/>
+      <c r="DG16" s="25"/>
+      <c r="DH16" s="25"/>
+      <c r="DI16" s="25"/>
+      <c r="DJ16" s="25"/>
+      <c r="DK16" s="25"/>
+      <c r="DL16" s="25"/>
+      <c r="DM16" s="25"/>
+      <c r="DN16" s="25"/>
+      <c r="DO16" s="25"/>
+      <c r="DP16" s="25"/>
+      <c r="DQ16" s="25"/>
+      <c r="DR16" s="25"/>
+      <c r="DS16" s="25"/>
+      <c r="DT16" s="25"/>
+      <c r="DU16" s="25"/>
+      <c r="DV16" s="25"/>
+      <c r="DW16" s="25"/>
+      <c r="DX16" s="25"/>
+      <c r="DY16" s="25"/>
+      <c r="DZ16" s="25"/>
+      <c r="EA16" s="25"/>
+      <c r="EB16" s="25"/>
+      <c r="EC16" s="25"/>
+      <c r="ED16" s="25"/>
+      <c r="EE16" s="25"/>
+      <c r="EF16" s="25"/>
+      <c r="EG16" s="25"/>
+      <c r="EH16" s="25"/>
+      <c r="EI16" s="25"/>
+      <c r="EJ16" s="25"/>
+      <c r="EK16" s="25"/>
+      <c r="EL16" s="25"/>
+      <c r="EM16" s="25"/>
+      <c r="EN16" s="25"/>
+      <c r="EO16" s="25"/>
+      <c r="EP16" s="25"/>
+      <c r="EQ16" s="25"/>
+      <c r="ER16" s="25"/>
+      <c r="ES16" s="25"/>
+      <c r="ET16" s="25"/>
+      <c r="EU16" s="25"/>
+      <c r="EV16" s="25"/>
+      <c r="EW16" s="25"/>
+      <c r="EX16" s="25"/>
+      <c r="EY16" s="25"/>
+      <c r="EZ16" s="25"/>
+      <c r="FA16" s="25"/>
+      <c r="FB16" s="25"/>
+      <c r="FC16" s="25"/>
+      <c r="FD16" s="25"/>
+      <c r="FE16" s="25"/>
+      <c r="FF16" s="25"/>
+      <c r="FG16" s="25"/>
+      <c r="FH16" s="25"/>
+      <c r="FI16" s="25"/>
+      <c r="FJ16" s="25"/>
+      <c r="FK16" s="25"/>
+      <c r="FL16" s="25"/>
+      <c r="FM16" s="25"/>
+      <c r="FN16" s="25"/>
+      <c r="FO16" s="25"/>
+      <c r="FP16" s="25"/>
+      <c r="FQ16" s="25"/>
+      <c r="FR16" s="25"/>
+      <c r="FS16" s="25"/>
+      <c r="FT16" s="25"/>
+      <c r="FU16" s="25"/>
+      <c r="FV16" s="25"/>
+      <c r="FW16" s="25"/>
+      <c r="FX16" s="25"/>
+      <c r="FY16" s="25"/>
+      <c r="FZ16" s="25"/>
+      <c r="GA16" s="25"/>
+      <c r="GB16" s="25"/>
+      <c r="GC16" s="25"/>
+      <c r="GD16" s="25"/>
+      <c r="GE16" s="25"/>
+      <c r="GF16" s="25"/>
+      <c r="GG16" s="25"/>
+      <c r="GH16" s="25"/>
+      <c r="GI16" s="25"/>
+      <c r="GJ16" s="25"/>
+      <c r="GK16" s="25"/>
+      <c r="GL16" s="25"/>
+      <c r="GM16" s="25"/>
+      <c r="GN16" s="25"/>
+      <c r="GO16" s="25"/>
+      <c r="GP16" s="25"/>
+      <c r="GQ16" s="25"/>
+      <c r="GR16" s="25"/>
+      <c r="GS16" s="25"/>
+      <c r="GT16" s="25"/>
+      <c r="GU16" s="25"/>
+      <c r="GV16" s="25"/>
+      <c r="GW16" s="25"/>
+      <c r="GX16" s="25"/>
+      <c r="GY16" s="25"/>
+      <c r="GZ16" s="25"/>
+      <c r="HA16" s="25"/>
+      <c r="HB16" s="25"/>
+      <c r="HC16" s="25"/>
+      <c r="HD16" s="25"/>
+      <c r="HE16" s="25"/>
+      <c r="HF16" s="25"/>
+      <c r="HG16" s="25"/>
+      <c r="HH16" s="25"/>
+      <c r="HI16" s="25"/>
+      <c r="HJ16" s="25"/>
+      <c r="HK16" s="25"/>
+      <c r="HL16" s="25"/>
+      <c r="HM16" s="25"/>
+      <c r="HN16" s="25"/>
+      <c r="HO16" s="25"/>
+      <c r="HP16" s="25"/>
+      <c r="HQ16" s="25"/>
+      <c r="HR16" s="25"/>
+      <c r="HS16" s="25"/>
+      <c r="HT16" s="25"/>
+      <c r="HU16" s="25"/>
+      <c r="HV16" s="25"/>
+      <c r="HW16" s="25"/>
+      <c r="HX16" s="25"/>
+      <c r="HY16" s="25"/>
+      <c r="HZ16" s="25"/>
+      <c r="IA16" s="25"/>
+      <c r="IB16" s="25"/>
+      <c r="IC16" s="25"/>
+      <c r="ID16" s="25"/>
+      <c r="IE16" s="25"/>
+      <c r="IF16" s="25"/>
+      <c r="IG16" s="25"/>
+      <c r="IH16" s="25"/>
+      <c r="II16" s="25"/>
+      <c r="IJ16" s="25"/>
+      <c r="IK16" s="25"/>
+      <c r="IL16" s="25"/>
+      <c r="IM16" s="25"/>
+      <c r="IN16" s="25"/>
+      <c r="IO16" s="25"/>
+      <c r="IP16" s="25"/>
+      <c r="IQ16" s="25"/>
+      <c r="IR16" s="25"/>
+      <c r="IS16" s="25"/>
+      <c r="IT16" s="25"/>
+      <c r="IU16" s="25"/>
+      <c r="IV16" s="25"/>
+      <c r="IW16" s="25"/>
+    </row>
+    <row r="17" spans="1:257" s="26" customFormat="1" ht="19.5">
+      <c r="A17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40">
         <f>ROUND(D16*0.05,0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="39"/>
-      <c r="AV17" s="39"/>
-      <c r="AW17" s="39"/>
-      <c r="AX17" s="39"/>
-      <c r="AY17" s="39"/>
-      <c r="AZ17" s="39"/>
-      <c r="BA17" s="39"/>
-      <c r="BB17" s="39"/>
-      <c r="BC17" s="39"/>
-      <c r="BD17" s="39"/>
-      <c r="BE17" s="39"/>
-      <c r="BF17" s="39"/>
-      <c r="BG17" s="39"/>
-      <c r="BH17" s="39"/>
-      <c r="BI17" s="39"/>
-      <c r="BJ17" s="39"/>
-      <c r="BK17" s="39"/>
-      <c r="BL17" s="39"/>
-      <c r="BM17" s="39"/>
-      <c r="BN17" s="39"/>
-      <c r="BO17" s="39"/>
-      <c r="BP17" s="39"/>
-      <c r="BQ17" s="39"/>
-      <c r="BR17" s="39"/>
-      <c r="BS17" s="39"/>
-      <c r="BT17" s="39"/>
-      <c r="BU17" s="39"/>
-      <c r="BV17" s="39"/>
-      <c r="BW17" s="39"/>
-      <c r="BX17" s="39"/>
-      <c r="BY17" s="39"/>
-      <c r="BZ17" s="39"/>
-      <c r="CA17" s="39"/>
-      <c r="CB17" s="39"/>
-      <c r="CC17" s="39"/>
-      <c r="CD17" s="39"/>
-      <c r="CE17" s="39"/>
-      <c r="CF17" s="39"/>
-      <c r="CG17" s="39"/>
-      <c r="CH17" s="39"/>
-      <c r="CI17" s="39"/>
-      <c r="CJ17" s="39"/>
-      <c r="CK17" s="39"/>
-      <c r="CL17" s="39"/>
-      <c r="CM17" s="39"/>
-      <c r="CN17" s="39"/>
-      <c r="CO17" s="39"/>
-      <c r="CP17" s="39"/>
-      <c r="CQ17" s="39"/>
-      <c r="CR17" s="39"/>
-      <c r="CS17" s="39"/>
-      <c r="CT17" s="39"/>
-      <c r="CU17" s="39"/>
-      <c r="CV17" s="39"/>
-      <c r="CW17" s="39"/>
-      <c r="CX17" s="39"/>
-      <c r="CY17" s="39"/>
-      <c r="CZ17" s="39"/>
-      <c r="DA17" s="39"/>
-      <c r="DB17" s="39"/>
-      <c r="DC17" s="39"/>
-      <c r="DD17" s="39"/>
-      <c r="DE17" s="39"/>
-      <c r="DF17" s="39"/>
-      <c r="DG17" s="39"/>
-      <c r="DH17" s="39"/>
-      <c r="DI17" s="39"/>
-      <c r="DJ17" s="39"/>
-      <c r="DK17" s="39"/>
-      <c r="DL17" s="39"/>
-      <c r="DM17" s="39"/>
-      <c r="DN17" s="39"/>
-      <c r="DO17" s="39"/>
-      <c r="DP17" s="39"/>
-      <c r="DQ17" s="39"/>
-      <c r="DR17" s="39"/>
-      <c r="DS17" s="39"/>
-      <c r="DT17" s="39"/>
-      <c r="DU17" s="39"/>
-      <c r="DV17" s="39"/>
-      <c r="DW17" s="39"/>
-      <c r="DX17" s="39"/>
-      <c r="DY17" s="39"/>
-      <c r="DZ17" s="39"/>
-      <c r="EA17" s="39"/>
-      <c r="EB17" s="39"/>
-      <c r="EC17" s="39"/>
-      <c r="ED17" s="39"/>
-      <c r="EE17" s="39"/>
-      <c r="EF17" s="39"/>
-      <c r="EG17" s="39"/>
-      <c r="EH17" s="39"/>
-      <c r="EI17" s="39"/>
-      <c r="EJ17" s="39"/>
-      <c r="EK17" s="39"/>
-      <c r="EL17" s="39"/>
-      <c r="EM17" s="39"/>
-      <c r="EN17" s="39"/>
-      <c r="EO17" s="39"/>
-      <c r="EP17" s="39"/>
-      <c r="EQ17" s="39"/>
-      <c r="ER17" s="39"/>
-      <c r="ES17" s="39"/>
-      <c r="ET17" s="39"/>
-      <c r="EU17" s="39"/>
-      <c r="EV17" s="39"/>
-      <c r="EW17" s="39"/>
-      <c r="EX17" s="39"/>
-      <c r="EY17" s="39"/>
-      <c r="EZ17" s="39"/>
-      <c r="FA17" s="39"/>
-      <c r="FB17" s="39"/>
-      <c r="FC17" s="39"/>
-      <c r="FD17" s="39"/>
-      <c r="FE17" s="39"/>
-      <c r="FF17" s="39"/>
-      <c r="FG17" s="39"/>
-      <c r="FH17" s="39"/>
-      <c r="FI17" s="39"/>
-      <c r="FJ17" s="39"/>
-      <c r="FK17" s="39"/>
-      <c r="FL17" s="39"/>
-      <c r="FM17" s="39"/>
-      <c r="FN17" s="39"/>
-      <c r="FO17" s="39"/>
-      <c r="FP17" s="39"/>
-      <c r="FQ17" s="39"/>
-      <c r="FR17" s="39"/>
-      <c r="FS17" s="39"/>
-      <c r="FT17" s="39"/>
-      <c r="FU17" s="39"/>
-      <c r="FV17" s="39"/>
-      <c r="FW17" s="39"/>
-      <c r="FX17" s="39"/>
-      <c r="FY17" s="39"/>
-      <c r="FZ17" s="39"/>
-      <c r="GA17" s="39"/>
-      <c r="GB17" s="39"/>
-      <c r="GC17" s="39"/>
-      <c r="GD17" s="39"/>
-      <c r="GE17" s="39"/>
-      <c r="GF17" s="39"/>
-      <c r="GG17" s="39"/>
-      <c r="GH17" s="39"/>
-      <c r="GI17" s="39"/>
-      <c r="GJ17" s="39"/>
-      <c r="GK17" s="39"/>
-      <c r="GL17" s="39"/>
-      <c r="GM17" s="39"/>
-      <c r="GN17" s="39"/>
-      <c r="GO17" s="39"/>
-      <c r="GP17" s="39"/>
-      <c r="GQ17" s="39"/>
-      <c r="GR17" s="39"/>
-      <c r="GS17" s="39"/>
-      <c r="GT17" s="39"/>
-      <c r="GU17" s="39"/>
-      <c r="GV17" s="39"/>
-      <c r="GW17" s="39"/>
-      <c r="GX17" s="39"/>
-      <c r="GY17" s="39"/>
-      <c r="GZ17" s="39"/>
-      <c r="HA17" s="39"/>
-      <c r="HB17" s="39"/>
-      <c r="HC17" s="39"/>
-      <c r="HD17" s="39"/>
-      <c r="HE17" s="39"/>
-      <c r="HF17" s="39"/>
-      <c r="HG17" s="39"/>
-      <c r="HH17" s="39"/>
-      <c r="HI17" s="39"/>
-      <c r="HJ17" s="39"/>
-      <c r="HK17" s="39"/>
-      <c r="HL17" s="39"/>
-      <c r="HM17" s="39"/>
-      <c r="HN17" s="39"/>
-      <c r="HO17" s="39"/>
-      <c r="HP17" s="39"/>
-      <c r="HQ17" s="39"/>
-      <c r="HR17" s="39"/>
-      <c r="HS17" s="39"/>
-      <c r="HT17" s="39"/>
-      <c r="HU17" s="39"/>
-      <c r="HV17" s="39"/>
-      <c r="HW17" s="39"/>
-      <c r="HX17" s="39"/>
-      <c r="HY17" s="39"/>
-      <c r="HZ17" s="39"/>
-      <c r="IA17" s="39"/>
-      <c r="IB17" s="39"/>
-      <c r="IC17" s="39"/>
-      <c r="ID17" s="39"/>
-      <c r="IE17" s="39"/>
-      <c r="IF17" s="39"/>
-      <c r="IG17" s="39"/>
-      <c r="IH17" s="39"/>
-      <c r="II17" s="39"/>
-      <c r="IJ17" s="39"/>
-      <c r="IK17" s="39"/>
-      <c r="IL17" s="39"/>
-      <c r="IM17" s="39"/>
-      <c r="IN17" s="39"/>
-      <c r="IO17" s="39"/>
-      <c r="IP17" s="39"/>
-      <c r="IQ17" s="39"/>
-      <c r="IR17" s="39"/>
-      <c r="IS17" s="39"/>
-      <c r="IT17" s="39"/>
-      <c r="IU17" s="39"/>
-      <c r="IV17" s="39"/>
-      <c r="IW17" s="39"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="25"/>
+      <c r="AS17" s="25"/>
+      <c r="AT17" s="25"/>
+      <c r="AU17" s="25"/>
+      <c r="AV17" s="25"/>
+      <c r="AW17" s="25"/>
+      <c r="AX17" s="25"/>
+      <c r="AY17" s="25"/>
+      <c r="AZ17" s="25"/>
+      <c r="BA17" s="25"/>
+      <c r="BB17" s="25"/>
+      <c r="BC17" s="25"/>
+      <c r="BD17" s="25"/>
+      <c r="BE17" s="25"/>
+      <c r="BF17" s="25"/>
+      <c r="BG17" s="25"/>
+      <c r="BH17" s="25"/>
+      <c r="BI17" s="25"/>
+      <c r="BJ17" s="25"/>
+      <c r="BK17" s="25"/>
+      <c r="BL17" s="25"/>
+      <c r="BM17" s="25"/>
+      <c r="BN17" s="25"/>
+      <c r="BO17" s="25"/>
+      <c r="BP17" s="25"/>
+      <c r="BQ17" s="25"/>
+      <c r="BR17" s="25"/>
+      <c r="BS17" s="25"/>
+      <c r="BT17" s="25"/>
+      <c r="BU17" s="25"/>
+      <c r="BV17" s="25"/>
+      <c r="BW17" s="25"/>
+      <c r="BX17" s="25"/>
+      <c r="BY17" s="25"/>
+      <c r="BZ17" s="25"/>
+      <c r="CA17" s="25"/>
+      <c r="CB17" s="25"/>
+      <c r="CC17" s="25"/>
+      <c r="CD17" s="25"/>
+      <c r="CE17" s="25"/>
+      <c r="CF17" s="25"/>
+      <c r="CG17" s="25"/>
+      <c r="CH17" s="25"/>
+      <c r="CI17" s="25"/>
+      <c r="CJ17" s="25"/>
+      <c r="CK17" s="25"/>
+      <c r="CL17" s="25"/>
+      <c r="CM17" s="25"/>
+      <c r="CN17" s="25"/>
+      <c r="CO17" s="25"/>
+      <c r="CP17" s="25"/>
+      <c r="CQ17" s="25"/>
+      <c r="CR17" s="25"/>
+      <c r="CS17" s="25"/>
+      <c r="CT17" s="25"/>
+      <c r="CU17" s="25"/>
+      <c r="CV17" s="25"/>
+      <c r="CW17" s="25"/>
+      <c r="CX17" s="25"/>
+      <c r="CY17" s="25"/>
+      <c r="CZ17" s="25"/>
+      <c r="DA17" s="25"/>
+      <c r="DB17" s="25"/>
+      <c r="DC17" s="25"/>
+      <c r="DD17" s="25"/>
+      <c r="DE17" s="25"/>
+      <c r="DF17" s="25"/>
+      <c r="DG17" s="25"/>
+      <c r="DH17" s="25"/>
+      <c r="DI17" s="25"/>
+      <c r="DJ17" s="25"/>
+      <c r="DK17" s="25"/>
+      <c r="DL17" s="25"/>
+      <c r="DM17" s="25"/>
+      <c r="DN17" s="25"/>
+      <c r="DO17" s="25"/>
+      <c r="DP17" s="25"/>
+      <c r="DQ17" s="25"/>
+      <c r="DR17" s="25"/>
+      <c r="DS17" s="25"/>
+      <c r="DT17" s="25"/>
+      <c r="DU17" s="25"/>
+      <c r="DV17" s="25"/>
+      <c r="DW17" s="25"/>
+      <c r="DX17" s="25"/>
+      <c r="DY17" s="25"/>
+      <c r="DZ17" s="25"/>
+      <c r="EA17" s="25"/>
+      <c r="EB17" s="25"/>
+      <c r="EC17" s="25"/>
+      <c r="ED17" s="25"/>
+      <c r="EE17" s="25"/>
+      <c r="EF17" s="25"/>
+      <c r="EG17" s="25"/>
+      <c r="EH17" s="25"/>
+      <c r="EI17" s="25"/>
+      <c r="EJ17" s="25"/>
+      <c r="EK17" s="25"/>
+      <c r="EL17" s="25"/>
+      <c r="EM17" s="25"/>
+      <c r="EN17" s="25"/>
+      <c r="EO17" s="25"/>
+      <c r="EP17" s="25"/>
+      <c r="EQ17" s="25"/>
+      <c r="ER17" s="25"/>
+      <c r="ES17" s="25"/>
+      <c r="ET17" s="25"/>
+      <c r="EU17" s="25"/>
+      <c r="EV17" s="25"/>
+      <c r="EW17" s="25"/>
+      <c r="EX17" s="25"/>
+      <c r="EY17" s="25"/>
+      <c r="EZ17" s="25"/>
+      <c r="FA17" s="25"/>
+      <c r="FB17" s="25"/>
+      <c r="FC17" s="25"/>
+      <c r="FD17" s="25"/>
+      <c r="FE17" s="25"/>
+      <c r="FF17" s="25"/>
+      <c r="FG17" s="25"/>
+      <c r="FH17" s="25"/>
+      <c r="FI17" s="25"/>
+      <c r="FJ17" s="25"/>
+      <c r="FK17" s="25"/>
+      <c r="FL17" s="25"/>
+      <c r="FM17" s="25"/>
+      <c r="FN17" s="25"/>
+      <c r="FO17" s="25"/>
+      <c r="FP17" s="25"/>
+      <c r="FQ17" s="25"/>
+      <c r="FR17" s="25"/>
+      <c r="FS17" s="25"/>
+      <c r="FT17" s="25"/>
+      <c r="FU17" s="25"/>
+      <c r="FV17" s="25"/>
+      <c r="FW17" s="25"/>
+      <c r="FX17" s="25"/>
+      <c r="FY17" s="25"/>
+      <c r="FZ17" s="25"/>
+      <c r="GA17" s="25"/>
+      <c r="GB17" s="25"/>
+      <c r="GC17" s="25"/>
+      <c r="GD17" s="25"/>
+      <c r="GE17" s="25"/>
+      <c r="GF17" s="25"/>
+      <c r="GG17" s="25"/>
+      <c r="GH17" s="25"/>
+      <c r="GI17" s="25"/>
+      <c r="GJ17" s="25"/>
+      <c r="GK17" s="25"/>
+      <c r="GL17" s="25"/>
+      <c r="GM17" s="25"/>
+      <c r="GN17" s="25"/>
+      <c r="GO17" s="25"/>
+      <c r="GP17" s="25"/>
+      <c r="GQ17" s="25"/>
+      <c r="GR17" s="25"/>
+      <c r="GS17" s="25"/>
+      <c r="GT17" s="25"/>
+      <c r="GU17" s="25"/>
+      <c r="GV17" s="25"/>
+      <c r="GW17" s="25"/>
+      <c r="GX17" s="25"/>
+      <c r="GY17" s="25"/>
+      <c r="GZ17" s="25"/>
+      <c r="HA17" s="25"/>
+      <c r="HB17" s="25"/>
+      <c r="HC17" s="25"/>
+      <c r="HD17" s="25"/>
+      <c r="HE17" s="25"/>
+      <c r="HF17" s="25"/>
+      <c r="HG17" s="25"/>
+      <c r="HH17" s="25"/>
+      <c r="HI17" s="25"/>
+      <c r="HJ17" s="25"/>
+      <c r="HK17" s="25"/>
+      <c r="HL17" s="25"/>
+      <c r="HM17" s="25"/>
+      <c r="HN17" s="25"/>
+      <c r="HO17" s="25"/>
+      <c r="HP17" s="25"/>
+      <c r="HQ17" s="25"/>
+      <c r="HR17" s="25"/>
+      <c r="HS17" s="25"/>
+      <c r="HT17" s="25"/>
+      <c r="HU17" s="25"/>
+      <c r="HV17" s="25"/>
+      <c r="HW17" s="25"/>
+      <c r="HX17" s="25"/>
+      <c r="HY17" s="25"/>
+      <c r="HZ17" s="25"/>
+      <c r="IA17" s="25"/>
+      <c r="IB17" s="25"/>
+      <c r="IC17" s="25"/>
+      <c r="ID17" s="25"/>
+      <c r="IE17" s="25"/>
+      <c r="IF17" s="25"/>
+      <c r="IG17" s="25"/>
+      <c r="IH17" s="25"/>
+      <c r="II17" s="25"/>
+      <c r="IJ17" s="25"/>
+      <c r="IK17" s="25"/>
+      <c r="IL17" s="25"/>
+      <c r="IM17" s="25"/>
+      <c r="IN17" s="25"/>
+      <c r="IO17" s="25"/>
+      <c r="IP17" s="25"/>
+      <c r="IQ17" s="25"/>
+      <c r="IR17" s="25"/>
+      <c r="IS17" s="25"/>
+      <c r="IT17" s="25"/>
+      <c r="IU17" s="25"/>
+      <c r="IV17" s="25"/>
+      <c r="IW17" s="25"/>
     </row>
     <row r="18" spans="1:257" s="5" customFormat="1" ht="19.5">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="4">
         <f>SUM(D16:D17)</f>
         <v>0</v>
@@ -1611,189 +1611,182 @@
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:257" ht="16.5" customHeight="1">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:257">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:257">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="1:257">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="1:257">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:257">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:257">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:257">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:257">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:257">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
     </row>
     <row r="32" spans="1:257">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
     </row>
     <row r="36" spans="1:7" ht="161.25" customHeight="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange password="CAA6" sqref="F16:G17" name="總價"/>
   </protectedRanges>
   <mergeCells count="20">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="A22:G39"/>
@@ -1807,6 +1800,13 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74861111111111101" header="0.51180555555555496" footer="0.31527777777777799"/>
